--- a/fuentes/contenidos/grado10/guion16/escaleta CN_10_16.xlsx
+++ b/fuentes/contenidos/grado10/guion16/escaleta CN_10_16.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_10_16_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -829,7 +824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +897,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -959,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1048,34 +1049,17 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1101,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1209,7 +1214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1244,7 +1249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1456,8 +1461,8 @@
   <dimension ref="A1:U289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W25" sqref="W25:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1480,7 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1485,94 +1490,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2584,7 +2589,7 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="40" t="s">
         <v>243</v>
       </c>
       <c r="P22" s="9" t="s">
@@ -2641,27 +2646,27 @@
       <c r="L23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9" t="s">
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="65">
         <v>6</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" s="65" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4635,10 +4640,13 @@
     <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U35">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4653,12 +4661,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion16/escaleta CN_10_16.xlsx
+++ b/fuentes/contenidos/grado10/guion16/escaleta CN_10_16.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -756,13 +756,16 @@
   </si>
   <si>
     <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=5&amp;idpil=AN020167&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +822,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -960,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1050,16 +1060,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,28 +1133,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1461,8 +1472,8 @@
   <dimension ref="A1:U289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W25" sqref="W25:W26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,81 +1501,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
+      <c r="N1" s="63"/>
       <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
@@ -1573,11 +1584,11 @@
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2646,28 +2657,28 @@
       <c r="L23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="64" t="s">
+      <c r="M23" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65" t="s">
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="65">
+      <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="S23" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="T23" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="U23" s="65" t="s">
-        <v>144</v>
+      <c r="R23" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="U23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4641,12 +4652,6 @@
     <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4661,6 +4666,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>
